--- a/Documents/HMM_Requirements.xlsx
+++ b/Documents/HMM_Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,9 +15,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">HMM </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin do:</t>
+  </si>
+  <si>
+    <t>System do</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Create/Update/Delete User; View User detail</t>
+  </si>
+  <si>
+    <t>Create/Update/Delete Template Bill; View Template Bill detail</t>
+  </si>
+  <si>
+    <t>Create/Update/Delete Bill; View bill Detail</t>
+  </si>
+  <si>
+    <t>group bill by month</t>
+  </si>
+  <si>
+    <t>Calculate each user have to pay bill for one month equally.</t>
+  </si>
+  <si>
+    <t>Grap the type of bill in pie chart</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,18 +86,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +411,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/HMM_Requirements.xlsx
+++ b/Documents/HMM_Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">HMM </t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Grap the type of bill in pie chart</t>
+  </si>
+  <si>
+    <t>Sent email to Users in home about detail paid</t>
   </si>
 </sst>
 </file>
@@ -115,8 +118,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -414,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,8 +542,12 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
